--- a/Excel/ForgeProductionConfig@cs.xlsx
+++ b/Excel/ForgeProductionConfig@cs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Project\UnityProject\ETGameLesson\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\F-UnityProject\UtopiaOnline\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEB9D06E-D1C0-44B6-856E-E1615E2015FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A8F2A37-ED4F-488E-AB6F-9347ED67C66B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3675" yWindow="600" windowWidth="21600" windowHeight="12465" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3564" yWindow="756" windowWidth="20916" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ForgeProductionConfig" sheetId="1" r:id="rId1"/>
@@ -455,21 +455,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:H7"/>
+  <dimension ref="C1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22:H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="25.125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="16.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.75" style="2" customWidth="1"/>
-    <col min="7" max="8" width="16.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="25.109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.77734375" style="2" customWidth="1"/>
+    <col min="7" max="8" width="16.77734375" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -541,7 +541,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C6" s="1">
         <v>1</v>
       </c>
@@ -566,18 +566,438 @@
         <v>2</v>
       </c>
       <c r="D7" s="1">
+        <v>1003</v>
+      </c>
+      <c r="E7" s="4">
+        <v>3</v>
+      </c>
+      <c r="F7" s="4">
+        <v>3017</v>
+      </c>
+      <c r="G7" s="4">
+        <v>120</v>
+      </c>
+      <c r="H7" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C8" s="1">
+        <v>3</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1004</v>
+      </c>
+      <c r="E8" s="4">
+        <v>3</v>
+      </c>
+      <c r="F8" s="4">
+        <v>3017</v>
+      </c>
+      <c r="G8" s="4">
+        <v>120</v>
+      </c>
+      <c r="H8" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C9" s="1">
+        <v>4</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1005</v>
+      </c>
+      <c r="E9" s="4">
+        <v>3</v>
+      </c>
+      <c r="F9" s="4">
+        <v>3017</v>
+      </c>
+      <c r="G9" s="4">
+        <v>120</v>
+      </c>
+      <c r="H9" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C10" s="1">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1006</v>
+      </c>
+      <c r="E10" s="4">
+        <v>3</v>
+      </c>
+      <c r="F10" s="4">
+        <v>3017</v>
+      </c>
+      <c r="G10" s="4">
+        <v>120</v>
+      </c>
+      <c r="H10" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C11" s="1">
+        <v>6</v>
+      </c>
+      <c r="D11" s="1">
         <v>1007</v>
       </c>
-      <c r="E7" s="4">
-        <v>3</v>
-      </c>
-      <c r="F7" s="4">
-        <v>3017</v>
-      </c>
-      <c r="G7" s="4">
-        <v>120</v>
-      </c>
-      <c r="H7" s="4">
+      <c r="E11" s="4">
+        <v>3</v>
+      </c>
+      <c r="F11" s="4">
+        <v>3017</v>
+      </c>
+      <c r="G11" s="4">
+        <v>120</v>
+      </c>
+      <c r="H11" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C12" s="1">
+        <v>7</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1008</v>
+      </c>
+      <c r="E12" s="4">
+        <v>3</v>
+      </c>
+      <c r="F12" s="4">
+        <v>3017</v>
+      </c>
+      <c r="G12" s="4">
+        <v>120</v>
+      </c>
+      <c r="H12" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C13" s="1">
+        <v>8</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1009</v>
+      </c>
+      <c r="E13" s="4">
+        <v>3</v>
+      </c>
+      <c r="F13" s="4">
+        <v>3017</v>
+      </c>
+      <c r="G13" s="4">
+        <v>120</v>
+      </c>
+      <c r="H13" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C14" s="1">
+        <v>9</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1010</v>
+      </c>
+      <c r="E14" s="4">
+        <v>3</v>
+      </c>
+      <c r="F14" s="4">
+        <v>3017</v>
+      </c>
+      <c r="G14" s="4">
+        <v>120</v>
+      </c>
+      <c r="H14" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C15" s="1">
+        <v>10</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1011</v>
+      </c>
+      <c r="E15" s="4">
+        <v>3</v>
+      </c>
+      <c r="F15" s="4">
+        <v>3017</v>
+      </c>
+      <c r="G15" s="4">
+        <v>120</v>
+      </c>
+      <c r="H15" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C16" s="1">
+        <v>11</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1012</v>
+      </c>
+      <c r="E16" s="4">
+        <v>3</v>
+      </c>
+      <c r="F16" s="4">
+        <v>3017</v>
+      </c>
+      <c r="G16" s="4">
+        <v>120</v>
+      </c>
+      <c r="H16" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C17" s="1">
+        <v>12</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1013</v>
+      </c>
+      <c r="E17" s="4">
+        <v>3</v>
+      </c>
+      <c r="F17" s="4">
+        <v>3017</v>
+      </c>
+      <c r="G17" s="4">
+        <v>120</v>
+      </c>
+      <c r="H17" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C18" s="1">
+        <v>13</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1014</v>
+      </c>
+      <c r="E18" s="4">
+        <v>3</v>
+      </c>
+      <c r="F18" s="4">
+        <v>3017</v>
+      </c>
+      <c r="G18" s="4">
+        <v>120</v>
+      </c>
+      <c r="H18" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C19" s="1">
+        <v>14</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1015</v>
+      </c>
+      <c r="E19" s="4">
+        <v>3</v>
+      </c>
+      <c r="F19" s="4">
+        <v>3017</v>
+      </c>
+      <c r="G19" s="4">
+        <v>120</v>
+      </c>
+      <c r="H19" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C20" s="1">
+        <v>15</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1016</v>
+      </c>
+      <c r="E20" s="4">
+        <v>3</v>
+      </c>
+      <c r="F20" s="4">
+        <v>3017</v>
+      </c>
+      <c r="G20" s="4">
+        <v>120</v>
+      </c>
+      <c r="H20" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C21" s="1">
+        <v>16</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1017</v>
+      </c>
+      <c r="E21" s="4">
+        <v>3</v>
+      </c>
+      <c r="F21" s="4">
+        <v>3017</v>
+      </c>
+      <c r="G21" s="4">
+        <v>120</v>
+      </c>
+      <c r="H21" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C22" s="1">
+        <v>17</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1018</v>
+      </c>
+      <c r="E22" s="4">
+        <v>3</v>
+      </c>
+      <c r="F22" s="4">
+        <v>3017</v>
+      </c>
+      <c r="G22" s="4">
+        <v>120</v>
+      </c>
+      <c r="H22" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C23" s="1">
+        <v>18</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1019</v>
+      </c>
+      <c r="E23" s="4">
+        <v>3</v>
+      </c>
+      <c r="F23" s="4">
+        <v>3017</v>
+      </c>
+      <c r="G23" s="4">
+        <v>120</v>
+      </c>
+      <c r="H23" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C24" s="1">
+        <v>19</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1020</v>
+      </c>
+      <c r="E24" s="4">
+        <v>3</v>
+      </c>
+      <c r="F24" s="4">
+        <v>3017</v>
+      </c>
+      <c r="G24" s="4">
+        <v>120</v>
+      </c>
+      <c r="H24" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C25" s="1">
+        <v>20</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1021</v>
+      </c>
+      <c r="E25" s="4">
+        <v>3</v>
+      </c>
+      <c r="F25" s="4">
+        <v>3017</v>
+      </c>
+      <c r="G25" s="4">
+        <v>120</v>
+      </c>
+      <c r="H25" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C26" s="1">
+        <v>21</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1022</v>
+      </c>
+      <c r="E26" s="4">
+        <v>3</v>
+      </c>
+      <c r="F26" s="4">
+        <v>3017</v>
+      </c>
+      <c r="G26" s="4">
+        <v>120</v>
+      </c>
+      <c r="H26" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C27" s="1">
+        <v>22</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1023</v>
+      </c>
+      <c r="E27" s="4">
+        <v>3</v>
+      </c>
+      <c r="F27" s="4">
+        <v>3017</v>
+      </c>
+      <c r="G27" s="4">
+        <v>120</v>
+      </c>
+      <c r="H27" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C28" s="1">
+        <v>23</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1024</v>
+      </c>
+      <c r="E28" s="4">
+        <v>3</v>
+      </c>
+      <c r="F28" s="4">
+        <v>3017</v>
+      </c>
+      <c r="G28" s="4">
+        <v>120</v>
+      </c>
+      <c r="H28" s="4">
         <v>2</v>
       </c>
     </row>
